--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Suppression produit.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Suppression produit.xlsx
@@ -87,9 +87,6 @@
     <t>Ces étiquettes à planter vous permettront de renseigner par un simple marquage à la craie, les variétés de plantation que vous faites pousser dans votre potager. Très astucieuses, ces étiquettes à planter en ardoise et en bois apporteront un cachet à vos compositions et mettront en scène votre potager avec originalité. Dimensions : H.14,4 X l.6,1 cm. Vendues en lot de 5 étiquettes.</t>
   </si>
   <si>
-    <t>Suppression d'un produit</t>
-  </si>
-  <si>
     <t>Requete</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>DELETE from produit where nomProduit="nouveauProduit";</t>
+  </si>
+  <si>
+    <t>Suppression d'un produit (nouvauProduit)</t>
   </si>
 </sst>
 </file>
@@ -595,11 +595,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,156 +929,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>7048</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>388</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>44290</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>38</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>7049</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>389</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>44205</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>5</v>
       </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
